--- a/biology/Zoologie/Encyocrypta_kritscheri/Encyocrypta_kritscheri.xlsx
+++ b/biology/Zoologie/Encyocrypta_kritscheri/Encyocrypta_kritscheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta kritscheri est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta kritscheri est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre vers Farino[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre vers Farino.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 16 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Erich Kritscher[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Erich Kritscher.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
